--- a/data/Lentil_FT13038_pheno_SW_test.xlsx
+++ b/data/Lentil_FT13038_pheno_SW_test.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Ford_Griffith\Hari\QTL_analysis\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA0CB275-4258-4981-8862-FF671495DCD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Lentil_FT13038_SW" sheetId="1" r:id="rId1"/>
-    <sheet name="Lentil_FT13038_sqrt_SW" sheetId="2" r:id="rId2"/>
-    <sheet name="Lentil_FT13038_Rep1_SW" sheetId="3" r:id="rId3"/>
-    <sheet name="Lentil_FT13038_Rep1_sqrt_SW" sheetId="4" r:id="rId4"/>
-    <sheet name="Lentil_FT13038_Rep2_SW" sheetId="5" r:id="rId5"/>
-    <sheet name="Lentil_FT13038_Rep2_sqrt_SW" sheetId="6" r:id="rId6"/>
+    <sheet name="Lentil_FT13038_SW" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lentil_FT13038_sqrt_SW" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lentil_FT13038_Rep1_SW" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lentil_FT13038_Rep1_sqrt_SW" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lentil_FT13038_Rep2_SW" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lentil_FT13038_Rep2_sqrt_SW" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Lentil_FT13038_AUDPC_SW" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>variable_name</t>
   </si>
@@ -59,12 +53,25 @@
   <si>
     <t>Stem_score_ratio_7</t>
   </si>
+  <si>
+    <t xml:space="preserve">statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shapiro-Wilk normality test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -161,7 +168,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,8 +179,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B558ADDE-C3D9-46A4-8A00-F421A9E467A3}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B558ADDE-C3D9-46A4-8A00-F421A9E467A3}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{3FEFFC24-DC2E-40EB-9755-48FC381ED766}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F9A6965-A03B-43CB-9FB8-CC9734244288}" name="variable_name"/>
@@ -185,8 +191,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C28A802-AA1F-42CC-BECB-2B3EF8A64E3F}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6C28A802-AA1F-42CC-BECB-2B3EF8A64E3F}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{61C2EC7A-07CC-41AA-A5E2-009A40BA7F30}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6AB11FF0-9923-41AD-A867-8A70856DD041}" name="variable_name"/>
@@ -197,8 +203,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E2C990C-43D7-47FD-976F-58652871E282}" name="Table3" displayName="Table3" ref="A1:C9" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2C990C-43D7-47FD-976F-58652871E282}" name="Table3" displayName="Table3" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{823CE1EC-3E66-416C-8373-96A4ECE199A0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ED13CA77-E144-4759-AC9F-FAA838F93F72}" name="variable_name"/>
@@ -209,8 +215,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5F734563-FEAE-44AC-A550-C65EBE252141}" name="Table4" displayName="Table4" ref="A1:C9" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5F734563-FEAE-44AC-A550-C65EBE252141}" name="Table4" displayName="Table4" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{7128A2B7-5FE6-4B5C-B236-55B8E98B9CF0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E99CC3F6-B93A-492B-9AFC-56BDAF3588E1}" name="variable_name"/>
@@ -221,8 +227,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8B1B0806-96A2-4C84-A57A-F27F5F01CA44}" name="Table5" displayName="Table5" ref="A1:C9" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B1B0806-96A2-4C84-A57A-F27F5F01CA44}" name="Table5" displayName="Table5" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{BBAFDEBE-6333-456D-B1C1-E3DD1293026F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F7D180A7-C254-488E-AEC1-AC73A21B21DF}" name="variable_name"/>
@@ -233,8 +239,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{68705080-16ED-48B7-8B3A-72B741BF3BBF}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{68705080-16ED-48B7-8B3A-72B741BF3BBF}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{312FEA9B-3080-4325-B201-DFA3548AEBCD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B69C6CE6-EE90-4941-B42D-82A5F571003A}" name="variable_name"/>
@@ -242,6 +248,18 @@
     <tableColumn id="3" xr3:uid="{1BE18A2F-B20C-43FE-919F-0113F6CF370A}" name="p.value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="statistic"/>
+    <tableColumn id="2" name="p.value"/>
+    <tableColumn id="3" name="method"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -541,21 +559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,91 +584,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.81653427747515661</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5.3347827695780532E-12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.90656564245249471</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6.7328874159996556E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.93721389471435401</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6.0966711288272123E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.15892926609212599</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6.7057822692738892E-25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.93436995307965853</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.8347825296985182E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.94479667526928957</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2.2204706253717868E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.95816432988740941</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>2.7341909868482719E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.86126140512783189</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3.5080475329970704E-10</v>
       </c>
     </row>
@@ -661,28 +679,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,91 +712,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.97821201196739938</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2.3712282870250911E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.98657090913898549</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.18701813470312853</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.98881602394681978</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.31719917350775273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.26880679415354136</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1.6775905674006955E-23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.9795573466311589</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.2996881510848383E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.9785903721805389</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2.601393594561589E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.98125820158000054</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5.0277216849303426E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.92574098102065383</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1.000429413488221E-6</v>
       </c>
     </row>
@@ -788,28 +807,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,91 +840,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.81653427747515661</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5.3347827695780532E-12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.90656564245249471</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6.7328874159996556E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.93721389471435401</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6.0966711288272123E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.15892926609212599</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6.7057822692738892E-25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.93436995307965853</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.8347825296985182E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.94479667526928957</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2.2204706253717868E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.95816432988740941</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>2.7341909868482719E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.86126140512783189</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3.5080475329970704E-10</v>
       </c>
     </row>
@@ -915,28 +935,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,91 +968,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.97821201196739938</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2.3712282870250911E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.98657090913898549</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.18701813470312853</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.98881602394681978</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.31719917350775273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.26880679415354136</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1.6775905674006955E-23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.9795573466311589</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.2996881510848383E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.9785903721805389</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2.601393594561589E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.98125820158000054</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5.0277216849303426E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.92574098102065383</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1.000429413488221E-6</v>
       </c>
     </row>
@@ -1042,28 +1063,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,91 +1096,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.81653427747515661</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5.3347827695780532E-12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.90656564245249471</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6.7328874159996556E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.93721389471435401</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6.0966711288272123E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.15892926609212599</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6.7057822692738892E-25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.93436995307965853</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.8347825296985182E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.94479667526928957</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2.2204706253717868E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.95816432988740941</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>2.7341909868482719E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.86126140512783189</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3.5080475329970704E-10</v>
       </c>
     </row>
@@ -1169,28 +1191,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,91 +1224,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.97821201196739938</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2.3712282870250911E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.98657090913898549</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.18701813470312853</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.98881602394681978</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.31719917350775273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.26880679415354136</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1.6775905674006955E-23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.9795573466311589</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.2996881510848383E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.9785903721805389</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2.601393594561589E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.98125820158000054</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5.0277216849303426E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.92574098102065383</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1.000429413488221E-6</v>
       </c>
     </row>
@@ -1296,8 +1319,48 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.986852229551412</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.200146571224564</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>